--- a/Customer_data.xlsx
+++ b/Customer_data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,6 +552,46 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mahinsa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200987643V</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>thellmbura</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0771249582</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Customer_data.xlsx
+++ b/Customer_data.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,32 +563,72 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>13:14:15 PM</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200987643V</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>thellmbura</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0771249582</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>200987643V</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>06/07/2023</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>thellmbura</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0771249582</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>rr</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>r</t>
         </is>
       </c>
     </row>

--- a/Customer_data.xlsx
+++ b/Customer_data.xlsx
@@ -1,33 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAMMI\Documents\Python projects\projects\Customer data Collecting System\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>NIC</t>
+  </si>
+  <si>
+    <t>Date of Come</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Tel. No.</t>
+  </si>
+  <si>
+    <t>shammi</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>987111216V</t>
+  </si>
+  <si>
+    <t>01/07/2023</t>
+  </si>
+  <si>
+    <t>9.00am</t>
+  </si>
+  <si>
+    <t>samanpaya,thellmbura</t>
+  </si>
+  <si>
+    <t>0764084211</t>
+  </si>
+  <si>
+    <t>Kavinda</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>983083218V</t>
+  </si>
+  <si>
+    <t>02/07/2023</t>
+  </si>
+  <si>
+    <t>6.48</t>
+  </si>
+  <si>
+    <t>Samanvila,Thellambura</t>
+  </si>
+  <si>
+    <t>0769011856</t>
+  </si>
+  <si>
+    <t>mahinsa</t>
+  </si>
+  <si>
+    <t>200987643V</t>
+  </si>
+  <si>
+    <t>06/07/2023</t>
+  </si>
+  <si>
+    <t>11.45</t>
+  </si>
+  <si>
+    <t>Samanpaya,thellmbura</t>
+  </si>
+  <si>
+    <t>0771249582</t>
+  </si>
+  <si>
+    <t>saman665678976V</t>
+  </si>
+  <si>
+    <t>6543456V</t>
+  </si>
+  <si>
+    <t>15.35</t>
+  </si>
+  <si>
+    <t>thellmbura</t>
+  </si>
+  <si>
+    <t>0724666650</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>re</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +169,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -407,229 +471,491 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col width="12.33203125" customWidth="1" min="1" max="1"/>
-    <col width="30.77734375" customWidth="1" min="2" max="2"/>
-    <col width="11.109375" customWidth="1" min="3" max="3"/>
-    <col width="15.6640625" customWidth="1" min="4" max="4"/>
-    <col width="13.44140625" customWidth="1" min="5" max="5"/>
-    <col width="11.88671875" customWidth="1" min="6" max="6"/>
-    <col width="22.33203125" customWidth="1" min="7" max="7"/>
-    <col width="18" customWidth="1" min="8" max="8"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Registration No.</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Gender</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>NIC</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Date of Come</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Address</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Tel. No.</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>shammi</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>987111216V</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.00am</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>samanpaya,thellmbura</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0764084211</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Kavinda</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>983083218V</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>02/07/2023</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Samanvila,Thellambura</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0769011856</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>mahinsa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>13:14:15 PM</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>200987643V</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>06/07/2023</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>thellmbura</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0771249582</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>06/07/2023</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>rr</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>r</t>
-        </is>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Customer_data.xlsx
+++ b/Customer_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -102,37 +102,7 @@
     <t>0771249582</t>
   </si>
   <si>
-    <t>saman665678976V</t>
-  </si>
-  <si>
-    <t>6543456V</t>
-  </si>
-  <si>
-    <t>15.35</t>
-  </si>
-  <si>
-    <t>thellmbura</t>
-  </si>
-  <si>
-    <t>0724666650</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>re</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>c</t>
+    <t>Registration _Nu</t>
   </si>
 </sst>
 </file>
@@ -148,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,47 +449,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
     <col min="2" max="2" width="30.77734375" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
+    <col min="7" max="7" width="29.77734375" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -592,370 +569,6 @@
       </c>
       <c r="H4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Customer_data.xlsx
+++ b/Customer_data.xlsx
@@ -1,133 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHAMMI\Documents\Python projects\projects\Customer data Collecting System\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>NIC</t>
-  </si>
-  <si>
-    <t>Date of Come</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Tel. No.</t>
-  </si>
-  <si>
-    <t>shammi</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>987111216V</t>
-  </si>
-  <si>
-    <t>01/07/2023</t>
-  </si>
-  <si>
-    <t>9.00am</t>
-  </si>
-  <si>
-    <t>samanpaya,thellmbura</t>
-  </si>
-  <si>
-    <t>0764084211</t>
-  </si>
-  <si>
-    <t>Kavinda</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>983083218V</t>
-  </si>
-  <si>
-    <t>02/07/2023</t>
-  </si>
-  <si>
-    <t>6.48</t>
-  </si>
-  <si>
-    <t>Samanvila,Thellambura</t>
-  </si>
-  <si>
-    <t>0769011856</t>
-  </si>
-  <si>
-    <t>mahinsa</t>
-  </si>
-  <si>
-    <t>200987643V</t>
-  </si>
-  <si>
-    <t>06/07/2023</t>
-  </si>
-  <si>
-    <t>11.45</t>
-  </si>
-  <si>
-    <t>Samanpaya,thellmbura</t>
-  </si>
-  <si>
-    <t>0771249582</t>
-  </si>
-  <si>
-    <t>Registration _Nu</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -145,22 +52,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,127 +414,269 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="29.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col width="16.109375" customWidth="1" min="1" max="1"/>
+    <col width="30.77734375" customWidth="1" min="2" max="2"/>
+    <col width="11.109375" customWidth="1" min="3" max="3"/>
+    <col width="15.6640625" customWidth="1" min="4" max="4"/>
+    <col width="18.109375" customWidth="1" min="5" max="5"/>
+    <col width="18.6640625" customWidth="1" min="6" max="6"/>
+    <col width="29.77734375" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Registration _Nu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Gender</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NIC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Come</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tel. No.</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>shammi</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>987111216V</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.00am</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>samanpaya,thellmbura</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0764084211</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kavinda</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>983083218V</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>02/07/2023</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Samanvila,Thellambura</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0769011856</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>mahinsa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>200987643V</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Samanpaya,thellmbura</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0771249582</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ranjani</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>712712195V</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>22:04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Shriwasa,Yakkalamulla</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0724666651</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saman</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>665103250V</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>06/07/2023</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>22:05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nabadawa,Yakkalamulla</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0724666650</t>
+        </is>
       </c>
     </row>
   </sheetData>
